--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_268__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_268__Reeval_LHS_Modell_1.3.xlsx
@@ -5876,10 +5876,10 @@
                   <c:v>70.42068481445312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.46035766601562</c:v>
+                  <c:v>68.46034240722656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.2236328125</c:v>
+                  <c:v>68.22364044189453</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64.19370269775391</c:v>
@@ -5888,7 +5888,7 @@
                   <c:v>59.96141815185547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.25815582275391</c:v>
+                  <c:v>67.25816345214844</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66.34297180175781</c:v>
@@ -5909,10 +5909,10 @@
                   <c:v>67.05577087402344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.99021148681641</c:v>
+                  <c:v>68.99021911621094</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67.19338226318359</c:v>
+                  <c:v>67.19337463378906</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>68.70347595214844</c:v>
@@ -5939,10 +5939,10 @@
                   <c:v>68.60154724121094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68.53194427490234</c:v>
+                  <c:v>68.53193664550781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.62393951416016</c:v>
+                  <c:v>65.62393188476562</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>62.86160278320312</c:v>
@@ -5954,13 +5954,13 @@
                   <c:v>69.74078369140625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.92256927490234</c:v>
+                  <c:v>66.92256164550781</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63.68157196044922</c:v>
+                  <c:v>63.68157958984375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.60746765136719</c:v>
+                  <c:v>62.60748291015625</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>69.96015167236328</c:v>
@@ -5975,13 +5975,13 @@
                   <c:v>68.44894409179688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.70548248291016</c:v>
+                  <c:v>70.70547485351562</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.51387023925781</c:v>
+                  <c:v>65.51386260986328</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67.91160583496094</c:v>
+                  <c:v>67.91159820556641</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>66.24455261230469</c:v>
@@ -5996,19 +5996,19 @@
                   <c:v>72.60151672363281</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.05653381347656</c:v>
+                  <c:v>58.05654144287109</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>66.84899139404297</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.18495941162109</c:v>
+                  <c:v>67.18495178222656</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>73.11329650878906</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68.54329681396484</c:v>
+                  <c:v>68.54330444335938</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>70.31568908691406</c:v>
@@ -6017,10 +6017,10 @@
                   <c:v>67.77774047851562</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>67.0074462890625</c:v>
+                  <c:v>67.00743865966797</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68.2373046875</c:v>
+                  <c:v>68.23729705810547</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>68.31292724609375</c:v>
@@ -6032,7 +6032,7 @@
                   <c:v>66.79349517822266</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>70.19944763183594</c:v>
+                  <c:v>70.19944000244141</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>71.99710083007812</c:v>
@@ -6041,7 +6041,7 @@
                   <c:v>69.67805480957031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>69.672607421875</c:v>
+                  <c:v>69.67261505126953</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>66.8697509765625</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>63.38023376464844</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>71.30666351318359</c:v>
+                  <c:v>71.30665588378906</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>70.66586303710938</c:v>
@@ -6062,19 +6062,19 @@
                   <c:v>68.33056640625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>67.61226654052734</c:v>
+                  <c:v>67.61227416992188</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>65.36712646484375</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66.47883605957031</c:v>
+                  <c:v>66.47882843017578</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>67.42407989501953</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66.18536376953125</c:v>
+                  <c:v>66.18534851074219</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>64.90319061279297</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>66.46552276611328</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70.17769622802734</c:v>
+                  <c:v>70.17768859863281</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>67.68997955322266</c:v>
@@ -6092,25 +6092,25 @@
                   <c:v>68.481201171875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>68.65901184082031</c:v>
+                  <c:v>68.65900421142578</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>67.74069213867188</c:v>
+                  <c:v>67.74068450927734</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>70.22284698486328</c:v>
+                  <c:v>70.22286224365234</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>65.62470245361328</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>59.65998077392578</c:v>
+                  <c:v>59.65998840332031</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>69.34563446044922</c:v>
+                  <c:v>69.34562683105469</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>66.76759338378906</c:v>
+                  <c:v>66.76758575439453</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>69.48892974853516</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>67.13826751708984</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>63.55446624755859</c:v>
+                  <c:v>63.55447387695312</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>65.39675903320312</c:v>
@@ -6140,28 +6140,28 @@
                   <c:v>71.3060302734375</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>65.99375915527344</c:v>
+                  <c:v>65.99376678466797</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>69.79449462890625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>68.68687438964844</c:v>
+                  <c:v>68.68686676025391</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>67.52839660644531</c:v>
+                  <c:v>67.52840423583984</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>66.82021331787109</c:v>
+                  <c:v>66.82020568847656</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>68.6983642578125</c:v>
+                  <c:v>68.69835662841797</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>69.10424041748047</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>70.99886322021484</c:v>
+                  <c:v>70.99885559082031</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>70.42013549804688</c:v>
@@ -6891,7 +6891,7 @@
         <v>59.1361</v>
       </c>
       <c r="F3">
-        <v>68.46035766601562</v>
+        <v>68.46034240722656</v>
       </c>
       <c r="G3">
         <v>126</v>
@@ -6923,7 +6923,7 @@
         <v>65.66840000000001</v>
       </c>
       <c r="F4">
-        <v>68.2236328125</v>
+        <v>68.22364044189453</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>67.25815582275391</v>
+        <v>67.25816345214844</v>
       </c>
       <c r="G7">
         <v>126</v>
@@ -7171,7 +7171,7 @@
         <v>86.3768</v>
       </c>
       <c r="F14">
-        <v>68.99021148681641</v>
+        <v>68.99021911621094</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>51.3815</v>
       </c>
       <c r="F15">
-        <v>67.19338226318359</v>
+        <v>67.19337463378906</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>85.872</v>
       </c>
       <c r="F24">
-        <v>68.53194427490234</v>
+        <v>68.53193664550781</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>54.0954</v>
       </c>
       <c r="F25">
-        <v>65.62393951416016</v>
+        <v>65.62393188476562</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>75.6429</v>
       </c>
       <c r="F29">
-        <v>66.92256927490234</v>
+        <v>66.92256164550781</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>47.6665</v>
       </c>
       <c r="F30">
-        <v>63.68157196044922</v>
+        <v>63.68157958984375</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>73.812</v>
       </c>
       <c r="F31">
-        <v>62.60746765136719</v>
+        <v>62.60748291015625</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>70.70548248291016</v>
+        <v>70.70547485351562</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>65.51387023925781</v>
+        <v>65.51386260986328</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>59.0932</v>
       </c>
       <c r="F38">
-        <v>67.91160583496094</v>
+        <v>67.91159820556641</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.9358</v>
       </c>
       <c r="F43">
-        <v>58.05653381347656</v>
+        <v>58.05654144287109</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>88.4863</v>
       </c>
       <c r="F45">
-        <v>67.18495941162109</v>
+        <v>67.18495178222656</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>68.54329681396484</v>
+        <v>68.54330444335938</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>67.0074462890625</v>
+        <v>67.00743865966797</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>68.2373046875</v>
+        <v>68.23729705810547</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>52.6674</v>
       </c>
       <c r="F55">
-        <v>70.19944763183594</v>
+        <v>70.19944000244141</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>81.81910000000001</v>
       </c>
       <c r="F58">
-        <v>69.672607421875</v>
+        <v>69.67261505126953</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>46.4093</v>
       </c>
       <c r="F62">
-        <v>71.30666351318359</v>
+        <v>71.30665588378906</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>70.2961</v>
       </c>
       <c r="F65">
-        <v>67.61226654052734</v>
+        <v>67.61227416992188</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>66.47883605957031</v>
+        <v>66.47882843017578</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>69.7713</v>
       </c>
       <c r="F69">
-        <v>66.18536376953125</v>
+        <v>66.18534851074219</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>67.99120000000001</v>
       </c>
       <c r="F72">
-        <v>70.17769622802734</v>
+        <v>70.17768859863281</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>68.65901184082031</v>
+        <v>68.65900421142578</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>64.7649</v>
       </c>
       <c r="F76">
-        <v>67.74069213867188</v>
+        <v>67.74068450927734</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>78.3785</v>
       </c>
       <c r="F77">
-        <v>70.22284698486328</v>
+        <v>70.22286224365234</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>40.0889</v>
       </c>
       <c r="F79">
-        <v>59.65998077392578</v>
+        <v>59.65998840332031</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>66.4979</v>
       </c>
       <c r="F80">
-        <v>69.34563446044922</v>
+        <v>69.34562683105469</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>66.76759338378906</v>
+        <v>66.76758575439453</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>43.913</v>
       </c>
       <c r="F85">
-        <v>63.55446624755859</v>
+        <v>63.55447387695312</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5769</v>
       </c>
       <c r="F91">
-        <v>65.99375915527344</v>
+        <v>65.99376678466797</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>77.9066</v>
       </c>
       <c r="F93">
-        <v>68.68687438964844</v>
+        <v>68.68686676025391</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>67.52839660644531</v>
+        <v>67.52840423583984</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>66.82021331787109</v>
+        <v>66.82020568847656</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>68.6983642578125</v>
+        <v>68.69835662841797</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>69.08</v>
       </c>
       <c r="F98">
-        <v>70.99886322021484</v>
+        <v>70.99885559082031</v>
       </c>
     </row>
     <row r="99" spans="1:6">
